--- a/BlockFiles/Block1.xlsx
+++ b/BlockFiles/Block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RV\Nextcloud\1-Recherche\04-PSYCHOPY\Renaud\2022\FisherTask\FisherTask2022_NwVers\Fisher Task PPyV2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingen\Desktop\Fisher_Task_Exp-main_essai\BlockFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDE1E35-D9ED-45F5-B1E8-3C611FC0CB1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098BE197-A9A2-4249-AA48-66AF56090320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17270" windowHeight="5400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="liste" sheetId="1" r:id="rId1"/>
@@ -67,64 +67,64 @@
     <t>Block</t>
   </si>
   <si>
-    <t>lakes_pic_G</t>
-  </si>
-  <si>
-    <t>lakes_pic_D</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_0%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_100%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_50%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_50%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_80%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_20%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_100%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_0%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_20%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_80%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_30%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_70%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_70%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_30%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_60%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_40%Black_Fishes_Right_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_90%Red_Fishes_Left_lakes.jpg</t>
-  </si>
-  <si>
-    <t>stimuli/lakes/Block_1_10%Black_Fishes_Right_lakes.jpg</t>
+    <t>Lake_pic_G</t>
+  </si>
+  <si>
+    <t>Lake_pic_D</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_0%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_100%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_50%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_50%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_80%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_20%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_100%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_0%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_20%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_80%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_30%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_70%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_70%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_30%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_60%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_40%Black_Fishes_Right_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_90%Red_Fishes_Left_Lake.jpg</t>
+  </si>
+  <si>
+    <t>stimuli/lakes/Block_1_10%Black_Fishes_Right_Lake.jpg</t>
   </si>
 </sst>
 </file>
@@ -967,28 +967,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.578125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.68359375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.41796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="50.15625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.83984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
